--- a/ガントチャート_散布図.xlsx
+++ b/ガントチャート_散布図.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C3036D-4879-44F6-8CE6-4FD9B6DA372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE6F9BB-FB56-4469-B342-B8A4A324DEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート_グラフ" sheetId="6" r:id="rId1"/>
+    <sheet name="積み上げ面" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ScrollingIncrement">#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="15"/>
@@ -249,6 +250,242 @@
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>下</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>下左</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>下右</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>上左</t>
+    <rPh sb="0" eb="2">
+      <t>ウエヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>上右</t>
+    <rPh sb="0" eb="2">
+      <t>ウエミギ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(-20,-20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(-20,20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(20,20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(20,-20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2軸</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1軸</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(0,20)</t>
+  </si>
+  <si>
+    <t>(0,20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(500,20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(1000,20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Excelグラフの技　～ 散布図を４象限に区切り、象限毎に背景色を変えるには？ ～ (starfree.jp)</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(500,0)</t>
+  </si>
+  <si>
+    <t>(500,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(500,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>係数：</t>
+    <rPh sb="0" eb="2">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(1000,0)</t>
+  </si>
+  <si>
+    <t>(1000,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(-20,0)</t>
+  </si>
+  <si>
+    <t>(-20,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(0,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(20,0)</t>
+  </si>
+  <si>
+    <t>(20,0)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(0,-20)</t>
+  </si>
+  <si>
+    <t>(0,-20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(0,20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(0,-20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(500,-20)</t>
+  </si>
+  <si>
+    <t>(500,-20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>(1000,-20)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>積み上げ1</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>積み上げ2</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>積み上げ3</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>積み上げ4</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>タスク大項目</t>
+    <rPh sb="3" eb="6">
+      <t>ダイコウモク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +496,7 @@
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +623,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +697,43 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -565,8 +845,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -638,10 +927,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -651,13 +943,31 @@
     <xf numFmtId="1" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="20% - アクセント 5" xfId="7" builtinId="46" customBuiltin="1"/>
     <cellStyle name="タイトル" xfId="13" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="16" builtinId="28" customBuiltin="1"/>
     <cellStyle name="パーセント" xfId="12" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8"/>
     <cellStyle name="メモ" xfId="23" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="20" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -1355,7 +1665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACBDC60A-B7B5-4D27-B852-AFA1203BFD67}" type="CELLRANGE">
+                    <a:fld id="{1DD9A7CE-CD29-45E3-B6CF-AB2F680D7F0D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1364,7 +1674,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{27748FED-E0E5-4130-BF8D-8A162CEDCA29}" type="XVALUE">
+                    <a:fld id="{00E41869-AA76-4671-BCF1-EF17010076DC}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1399,7 +1709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97CBF740-F2BD-4849-8ABD-596B7E138982}" type="CELLRANGE">
+                    <a:fld id="{EDC078FC-F0D1-497A-92E0-5EFDED5A71E4}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1408,7 +1718,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{55C793E3-967A-4CF8-8F27-2648D594D922}" type="XVALUE">
+                    <a:fld id="{36678DDC-A3B1-4186-891B-B25EB98D50BD}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1443,7 +1753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DC26FFB-4B53-490F-90DD-FCB384211A4A}" type="CELLRANGE">
+                    <a:fld id="{11C2FC37-9EA1-4FCD-A967-007E17F9EDD8}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1452,7 +1762,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{EF03F8BC-D74D-40EC-AD14-E06F99D0A499}" type="XVALUE">
+                    <a:fld id="{3DE5FC42-5905-43AA-B9C2-4774D959425B}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1487,7 +1797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64CB8082-2BDF-4AF4-99A3-E53A22568DD4}" type="CELLRANGE">
+                    <a:fld id="{969BF176-78B7-459B-834F-55B4C7DD9C0B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1496,7 +1806,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{F95811AB-6A2C-40A6-A368-44E999CF8B56}" type="XVALUE">
+                    <a:fld id="{DB1DB5F5-2233-4DF6-B2D3-CC541A4C5EE0}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1560,7 +1870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1C6169E-5073-4BFC-A960-97CD0F5576E3}" type="CELLRANGE">
+                    <a:fld id="{E7F08C0A-D5FC-479A-9D3C-F92830D77DCC}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1879,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{1CBE3B96-276B-48BA-A802-7C95A2221B53}" type="XVALUE">
+                    <a:fld id="{1F1D983B-4FC2-4B17-8A9C-1AA53805B1C0}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1604,7 +1914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36927ABF-3E96-4F12-B91E-6B672A669392}" type="CELLRANGE">
+                    <a:fld id="{07FA8EAC-CEE6-4604-BCC7-C73B6EAC1631}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1613,7 +1923,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{EAF924FC-B1E3-4E2F-8712-E8C51A2CD8B2}" type="XVALUE">
+                    <a:fld id="{288F1D72-4503-4069-B41D-47685D8E9157}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1648,7 +1958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49202BF4-320C-4BC4-9120-8F52A22A69D0}" type="CELLRANGE">
+                    <a:fld id="{2997D56B-8DD2-4DFD-BEF5-852168DE4645}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1657,7 +1967,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{A8417EA5-BF0C-4CFD-9D8F-3E376376E7B7}" type="XVALUE">
+                    <a:fld id="{658E7B59-4B11-4E43-9108-66F7C7A31C4E}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1692,7 +2002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0114092-F294-427F-82BD-D8CB1A79287B}" type="CELLRANGE">
+                    <a:fld id="{FFC888E4-9188-491F-ACD5-7FD53A3CAD78}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1701,7 +2011,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{91470DAB-5BAF-4360-A62F-61FDC52587D8}" type="XVALUE">
+                    <a:fld id="{CB1BA207-13B9-468B-AE38-9583915DE846}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1765,7 +2075,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84DB9FD2-86DB-4C1C-A140-CAFCFC25588B}" type="CELLRANGE">
+                    <a:fld id="{588ECEC7-08FE-4181-AC26-1E3F4B0FD0F9}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1774,7 +2084,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{03483AC9-22A0-43E5-8015-A6F9089BF109}" type="XVALUE">
+                    <a:fld id="{3461B023-B4AD-4CCC-AD9A-C7B6C40F9529}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1809,7 +2119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE287BB8-975D-4E80-89DF-C2C8E5C480DE}" type="CELLRANGE">
+                    <a:fld id="{46D412EF-37C5-4532-A81A-9B610480A7E4}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1818,7 +2128,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{6E36D5DA-D0DE-48B2-969C-05F302934B1C}" type="XVALUE">
+                    <a:fld id="{B9A471D0-AD12-4BBF-AEA7-1B9ACBD4ADB2}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1853,7 +2163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F6C6FBA-6C3C-465A-BC6A-C68361BE0630}" type="CELLRANGE">
+                    <a:fld id="{05EBBD10-B7E4-48FA-B7D7-74835DAD302C}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1862,7 +2172,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{3497F68F-DB67-47D4-8C40-1809E338237A}" type="XVALUE">
+                    <a:fld id="{2C9F9F59-3774-4B6D-816A-AEA14E965C88}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1897,7 +2207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{760C56CC-3846-4C4B-8861-9AE9DBCB7633}" type="CELLRANGE">
+                    <a:fld id="{454A7B17-DCCD-44EB-81F4-2987DC08A463}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1906,7 +2216,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{37F06D7C-F17C-420F-BE79-FBAA2F83949B}" type="XVALUE">
+                    <a:fld id="{2F4DEC7A-BA95-4C32-BC71-A3A5AB1BBD82}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -1970,7 +2280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D47CCA8-A44C-4C49-9ACB-1D2B7F02B158}" type="CELLRANGE">
+                    <a:fld id="{6778D3F6-97CE-4474-9BDC-F22B256F016D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1979,7 +2289,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{3E78158F-404E-44F9-B946-5586F6A30791}" type="XVALUE">
+                    <a:fld id="{ADD9397E-D1CB-49B5-A6CA-C13F735A5C1A}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -2014,7 +2324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FAEF75E-192C-449F-AFCC-127D7CFA1121}" type="CELLRANGE">
+                    <a:fld id="{935F231E-2B0F-4734-AB72-3741CDFDC867}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2023,7 +2333,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{2D3E409E-DD8A-41C4-8640-B7BD6FD701F2}" type="XVALUE">
+                    <a:fld id="{3F4886D3-2CFA-4B3A-97A9-F6822DE19A2E}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -2058,7 +2368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E88FDCBB-43D4-4424-9747-A83C13F3C448}" type="CELLRANGE">
+                    <a:fld id="{77E0F47E-3F87-40AB-B1A2-D0C75DDB7141}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2067,7 +2377,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{B3FA5A07-008C-408F-BC07-F7FD2DD01313}" type="XVALUE">
+                    <a:fld id="{A538F788-3C73-4CC8-BC6F-5E8179EED86A}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -2102,7 +2412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80498BC1-C4E9-4CEB-9701-A30825E52DE1}" type="CELLRANGE">
+                    <a:fld id="{68802DC1-C0EF-45BF-BFAC-1FD90699349D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2111,7 +2421,7 @@
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:fld id="{1F5F3604-D4A4-4226-8626-26AB4BA3FF33}" type="XVALUE">
+                    <a:fld id="{0F7B3337-9858-4534-88E6-EC8D81EEF9A1}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 値]</a:t>
@@ -3437,6 +3747,6701 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>テスト設計スケジュール</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29536575858980629"/>
+          <c:y val="2.4752565337072107E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8741613088344411E-2"/>
+          <c:y val="0.10749864107751674"/>
+          <c:w val="0.94548649376044613"/>
+          <c:h val="0.85528188286808982"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{69943F64-72CA-408A-BABA-D774A4FBC67C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$60:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$61:$M$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ガントチャート_グラフ!$K$61</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>積み上げ1</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{622964B9-98B2-4210-BA52-950FB51FFB4A}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$60:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$62:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ガントチャート_グラフ!$K$62</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>積み上げ2</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EDB80B64-4000-4307-89AF-A8896091F55F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$60:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$63:$M$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ガントチャート_グラフ!$K$63</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>積み上げ3</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9365103-E178-4A6B-A5F5-B7674E8BEA21}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$60:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$64:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ガントチャート_グラフ!$K$64</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>積み上げ4</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1508116352"/>
+        <c:axId val="1271925584"/>
+      </c:areaChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ガントチャート_グラフ!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>スケジュール</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14D0CC62-568B-4CFB-8F9F-6F873C2F673D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{B6EECE44-2620-46A7-AEF0-74FA40248BE6}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{855B6FDD-B699-48C8-AAB4-71482CB1DDD7}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{68C315D3-322A-4F59-B0D0-5220850F119E}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14542875-F810-4538-8FEE-913F0B0ECBFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{50262E11-33FC-4C7D-BE8B-B1F39F609DFE}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$5:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$M$5:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ガントチャート_グラフ!$K$5:$K$9</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>FF</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>RC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GM</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ガントチャート_グラフ!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>完了日(予定)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$N$13:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$P$13:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ガントチャート_グラフ!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>開始日(予定)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ガントチャート_グラフ!$O$13:$O$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="88900" cap="flat" cmpd="sng" algn="ctr">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$M$13:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$P$13:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ガントチャート_グラフ!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>進捗率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>ガントチャート_グラフ!$R$13:$R$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.299999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="88900">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$M$13:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$P$13:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ガントチャート_グラフ!$K$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>イベント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF837145-611A-4D02-870E-96B077EC127E}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{2BC8E486-677C-49FD-AD12-83CD5D16EE6E}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{18C204FD-D952-4891-AF29-0C114E2B80C2}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{8D64152D-CB2F-4F90-BC88-A10E5C449CA2}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1CD5685D-B641-445A-8CD0-2FFD781650BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{62316054-8E3F-4FC4-9723-4D38B18518FC}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ACB74E86-03C0-4C35-8526-27F4A9A4E283}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{9E1BB0A7-57AC-419F-8B60-58F7B1EBB727}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[X 値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:ln w="22225" cap="flat">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$37:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$M$37:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>ガントチャート_グラフ!$K$37:$K$42</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>MTG_A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MTG_B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MTG_C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>MTG_D</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ガントチャート_グラフ!$K$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Today線</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>ガントチャート_グラフ!$M$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>57</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ガントチャート_グラフ!$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-B5B9-47FE-9C35-76AF3FD6DD3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1918631151"/>
+        <c:axId val="1918628655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1918631151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918628655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1918628655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="-50"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1918631151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1271925584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-50"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1508116352"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1508116352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1271925584"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A310-45CC-8A8B-45CFF1FECFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下左</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A310-45CC-8A8B-45CFF1FECFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下右</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$E$19:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A310-45CC-8A8B-45CFF1FECFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上左</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$F$19:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A310-45CC-8A8B-45CFF1FECFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上右</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$G$19:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A310-45CC-8A8B-45CFF1FECFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1508110528"/>
+        <c:axId val="1508105952"/>
+      </c:areaChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>積み上げ面!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>積み上げ面!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A310-45CC-8A8B-45CFF1FECFBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1508127584"/>
+        <c:axId val="1508126336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1508127584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508126336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1508126336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508127584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1508105952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508110528"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1508110528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508105952"/>
+        <c:crosses val="max"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>積み上げ面!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>積み上げ面!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>積み上げ面!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E04F-4B12-9A86-5288C42FCF58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1508135488"/>
+        <c:axId val="1508132160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1508135488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508132160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1508132160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508135488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$33:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8554-41E0-8A3A-C39EFAF4C1F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8554-41E0-8A3A-C39EFAF4C1F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8554-41E0-8A3A-C39EFAF4C1F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8554-41E0-8A3A-C39EFAF4C1F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1271924752"/>
+        <c:axId val="1271918096"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1271924752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271918096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1271918096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271924752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$33:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BA1-4DB1-A638-1B2B5A2F59FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BA1-4DB1-A638-1B2B5A2F59FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BA1-4DB1-A638-1B2B5A2F59FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>積み上げ面!$A$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>積み上げ面!$A$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0BA1-4DB1-A638-1B2B5A2F59FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1271924752"/>
+        <c:axId val="1271918096"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1271924752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271918096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1271918096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1271924752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3472,6 +10477,193 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3743,10 +10935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="J2:S58"/>
+  <dimension ref="J2:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3770,58 +10962,58 @@
       </c>
     </row>
     <row r="4" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>45505</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <v>45597</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>45627</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8">
         <v>7</v>
       </c>
     </row>
@@ -3831,552 +11023,552 @@
       </c>
     </row>
     <row r="12" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>45436</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <v>45463</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="9">
         <f>N13-M13</f>
         <v>27</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <v>-4</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="5">
         <v>100</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="10">
         <f>O13*(Q13/100)</f>
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <v>45464</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <v>45493</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="9">
         <f t="shared" ref="O14:O30" si="0">N14-M14</f>
         <v>29</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="5">
         <v>-9</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="11">
         <v>70</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="10">
         <f>O14*(Q14/100)</f>
         <v>20.299999999999997</v>
       </c>
     </row>
     <row r="15" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="6">
         <v>45494</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="6">
         <v>45505</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="5">
         <v>-11</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <v>0</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="10">
         <f t="shared" ref="R15:R32" si="1">O15*(Q15/100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="6">
         <v>45506</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="6">
         <v>45524</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="5">
         <v>-13</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="11">
         <v>0</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="7">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="8">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="6">
         <v>45467</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="6">
         <v>45493</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="5">
         <v>-17</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="11">
         <v>100</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="6">
         <v>45494</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="6">
         <v>45524</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="5">
         <v>-19</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="11">
         <v>50</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="6">
         <v>45525</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="6">
         <v>45536</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="5">
         <v>-21</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="11">
         <v>50</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="10">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="6">
         <v>45537</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="6">
         <v>45555</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="5">
         <v>-23</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="11">
         <v>0</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="7">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="8">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="6">
         <v>45443</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="6">
         <v>45453</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="5">
         <v>-28</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="11">
         <v>50</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="6">
         <v>45454</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="6">
         <v>45463</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="5">
         <v>-33</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="11">
         <v>0</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="6">
         <v>45464</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="6">
         <v>45474</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="5">
         <v>-35</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="11">
         <v>0</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="6">
         <v>45475</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="6">
         <v>45486</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="5">
         <v>-37</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="11">
         <v>0</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="7">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="8">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="6">
         <v>45444</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="6">
         <v>45462</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="5">
         <v>-42</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="11">
         <v>0</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="6">
         <v>45463</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="6">
         <v>45474</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="5">
         <v>-44</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="11">
         <v>0</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="6">
         <v>45475</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="6">
         <v>45489</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="5">
         <v>-46</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="11">
         <v>0</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="6">
         <v>45505</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="6">
         <v>45526</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="9">
         <f>N31-M31</f>
         <v>21</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="5">
         <v>-48</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="11">
         <v>0</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="8">
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="6">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="8">
         <v>-50</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
     <row r="35" spans="11:18" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
@@ -4385,70 +11577,70 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="10"/>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="6">
         <v>45461</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="5">
         <v>-4</v>
       </c>
     </row>
     <row r="38" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="6">
         <v>45468</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="5">
         <v>-17</v>
       </c>
     </row>
     <row r="39" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="6">
         <v>45449</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="5">
         <v>-28</v>
       </c>
     </row>
     <row r="40" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="6">
         <v>45525</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="5">
         <v>-48</v>
       </c>
     </row>
     <row r="41" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="3"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="6">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8">
         <v>-50</v>
       </c>
     </row>
@@ -4458,34 +11650,34 @@
       </c>
     </row>
     <row r="45" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K46" s="4">
+      <c r="K46" s="6">
         <v>45440</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="5">
         <v>7</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="9">
         <f>ABS(MIN(P13:P33,M37:M42))+L46</f>
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K47" s="5"/>
-      <c r="L47" s="6">
+      <c r="K47" s="7"/>
+      <c r="L47" s="8">
         <v>7</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="51" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K51" s="1"/>
@@ -4512,9 +11704,569 @@
       <c r="L58" s="1"/>
       <c r="N58" s="1"/>
     </row>
+    <row r="60" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60" s="27">
+        <v>45443</v>
+      </c>
+      <c r="M60" s="27">
+        <v>45595</v>
+      </c>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L61">
+        <v>-15</v>
+      </c>
+      <c r="M61">
+        <f>L61</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="62" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62">
+        <v>-11</v>
+      </c>
+      <c r="M62">
+        <f>L62</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="63" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>75</v>
+      </c>
+      <c r="L63">
+        <v>-14</v>
+      </c>
+      <c r="M63">
+        <f>L63</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="64" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64">
+        <v>-10</v>
+      </c>
+      <c r="M64">
+        <f>L64</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>-13.3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-14.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>-14.1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>-6.4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>-16.8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-20</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>C14</f>
+        <v>-20</v>
+      </c>
+      <c r="B19" s="5">
+        <f>F16*(A19-A$19)/(A$22-A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <f>$C$14</f>
+        <v>-20</v>
+      </c>
+      <c r="D19" s="5">
+        <f>$C$15-$C$14</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f>$C$16-$C$15</f>
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <f>F16*(A20-A$19)/(A$22-A$19)</f>
+        <v>500</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" ref="C20:C22" si="0">$C$14</f>
+        <v>-20</v>
+      </c>
+      <c r="D20" s="5">
+        <f>$C$15-$C$14</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f>$C$16-$C$15</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <f>F16*(A21-A$19)/(A$22-A$19)</f>
+        <v>500</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f>$C$15-$C$14</f>
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f>$C$16-$C$15</f>
+        <v>20</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>C16</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f>F16*(A22-A$19)/(A$22-A$19)</f>
+        <v>1000</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f>$C$15-$C$14</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f>$C$16-$C$15</f>
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>500</v>
+      </c>
+      <c r="R27">
+        <v>500</v>
+      </c>
+      <c r="S27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>500</v>
+      </c>
+      <c r="C29" s="4">
+        <v>500</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <f>F27*(A32-A$19)/(A$22-A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>60</v>
+      </c>
+      <c r="D32" s="5">
+        <v>60</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <f>F27*(A33-A$19)/(A$22-A$19)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20</v>
+      </c>
+      <c r="E33" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" display="http://excelgraph1.starfree.jp/graph121/graph121.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>